--- a/answ/graph.xlsx
+++ b/answ/graph.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -63,7 +63,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7358,11 +7358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142593024"/>
-        <c:axId val="142598912"/>
+        <c:axId val="183599104"/>
+        <c:axId val="183600640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142593024"/>
+        <c:axId val="183599104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7371,7 +7371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142598912"/>
+        <c:crossAx val="183600640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7379,7 +7379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142598912"/>
+        <c:axId val="183600640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7390,9 +7390,7439 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142593024"/>
+        <c:crossAx val="183599104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$1200</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="1199"/>
+                <c:pt idx="0">
+                  <c:v>2.04305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9128499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.80304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.66808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.34107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1596200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97397299999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.790184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61422699999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.451822</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.308249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18817800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5513799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3264299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4497199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0348800000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3897100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.211587</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.336947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48482599999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65040699999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82829699999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.01271</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.19763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.37704</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.54511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6963600000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8258700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.92943</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.00366</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0461499999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.05552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0314700000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9747699999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.88727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.77183</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6322000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4729300000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2991999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.11666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93125899999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.74903299999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57591099999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41752899999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.27904299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.164962</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.8999899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.39563E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6247099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2734000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.69249E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13276099999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.23777799999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36855900000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.52084900000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.68969599999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.86960400000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0547200000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.23902</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4165099999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.58141</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7283500000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8525400000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9499599999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.01742</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0527199999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.05471</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0233300000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9595899999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.86558</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7443500000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.59985</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.43679</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2604900000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.07667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.89131199999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.71045599999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.53998100000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.38543100000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.25183100000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.14352300000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.4024999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5918399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.6196900000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9041599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.0155700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.15243399999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.26319300000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.39882200000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.55490200000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.72635000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.90758000000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0926899999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.27566</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4505300000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.61161</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7536499999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8720399999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.9629099999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.02332</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.05131</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0459499999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0074200000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.9370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8369500000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.71055</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.5619099999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3958600000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2178199999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0335700000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.84912200000000004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.67047000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.50343300000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.35344599999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.22539300000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.123442</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0913399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.01677E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.5332800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.8260199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.6513099999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.175398</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.29202499999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.43259900000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.59254700000000005</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.76666599999999996</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.94928999999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1344799999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.31619</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4885299999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.6458699999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.78308</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.8956900000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.98001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.03328</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0537299999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.0406599999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.99448</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.9166700000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.8097399999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.67719</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.52335</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.3532999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.17262</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.98725700000000005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.80330199999999996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.62676799999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.46339799999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.31848100000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.196688</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.101935</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.7268000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.7752000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.5166499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.9479899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.10556500000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.20160900000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.324459</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.470084</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.63372600000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.81006199999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.99337500000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.1777200000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.3571200000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.52572</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.6779900000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.8089500000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.9143300000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.99071</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.0356299999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.04766</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.0264199999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.9725900000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.8878699999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.77502</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.63771</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.48044</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.3083400000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1270199999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.942388</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.76042900000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.58706400000000003</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.42794399999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.28826299999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.17257800000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>8.4662200000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.7376999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.59122E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.1121000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.2699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.12598300000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.22858899999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.35718299999999997</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.50758599999999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.67491500000000004</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.85373600000000005</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.03823</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.2223999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.4002399999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.56596</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.7141900000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.8401000000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.9395899999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.00943</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.04732</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.0520299999999998</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.0234200000000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.9624200000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.8710100000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.7521599999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.6097300000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.44838</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.2733399999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.09033</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.90528799999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.72424299999999997</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.55307499999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.39734700000000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.26212299999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.15179400000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.9943599999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.9226500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.2834400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.6688700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.4930399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.144428</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.25258599999999998</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.38587399999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.53994799999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.709785</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.88984799999999997</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.0742700000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.25705</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.4322299999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.5941000000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.7374000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.8574600000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.9503600000000001</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.01309</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.0436100000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.0409199999999998</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.0051100000000002</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.9373499999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.8398399999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.71577</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.56917</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.40482</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.22807</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.0446800000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.86061900000000002</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.68188700000000002</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.51430399999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.36332900000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.23388200000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.13017999999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5.5605799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.25913E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.5424200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.5792200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8.1589700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.168125</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.282586</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.42125299999999999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.57961799999999997</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.75253000000000003</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.93436399999999997</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.1192</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.3010299999999999</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.47393</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.63226</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.77088</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.88524</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.9716199999999999</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.02718</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.0501100000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.0396299999999998</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.9960599999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.9208099999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.8163199999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.5341</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.3655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.18601</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.00122</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.81729799999999997</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.64025200000000004</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.47586499999999998</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.32948899999999998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.20587</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.108997</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>4.1980499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>6.9594499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5.0386900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.6259699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9.9601400000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.19300999999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.31346000000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.45704099999999998</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.61907599999999996</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.79427000000000003</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.97688299999999995</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.16093</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.34039</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.5094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.6624699999999999</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.7946500000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.9016599999999999</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.98004</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.0272600000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2.04175</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2.0230199999999998</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.9716499999999999</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.8893</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.7786599999999999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.64334</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.4878</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.31711</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.13686</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.95289400000000002</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.77119700000000002</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.59767000000000003</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.43796000000000002</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.29727700000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.18021999999999999</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>9.0615200000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3.1389500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4.47292E-3</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.0742700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5.0000799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.12098299999999999</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.22139600000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.34798600000000002</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.49664199999999997</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.66252500000000003</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.84023499999999995</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.02399</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.20783</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.3857900000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.55209</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.7013199999999999</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.82863</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.9298500000000001</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2.00169</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2.0417999999999998</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2.0489000000000002</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2.02277</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.9642500000000001</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.8752500000000001</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.75865</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.6182399999999999</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.45858</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.28488</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.1027899999999999</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.918242</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.73724000000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.56565699999999997</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.40906100000000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.27253699999999997</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.16051799999999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>7.6638800000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2.3617099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3.16329E-3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.5927699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>6.1481599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.13833000000000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.24396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.374919</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.52693100000000004</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.69503499999999996</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.87375199999999997</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.0572600000000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.2395799999999999</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.4147700000000001</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.5771299999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.7213499999999999</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.8427500000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.93736</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2.0021300000000002</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2.0349300000000001</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2.0347</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2.0014500000000002</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.9362600000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.8412599999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.7195400000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.57507</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.41256</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.2373099999999999</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.0550200000000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.87163500000000005</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.69312799999999997</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.52531799999999995</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.37367800000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.24315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.137989</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>6.1627800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.6561200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>4.2657399999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2.5150599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>7.8544699999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.16272</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.27494499999999999</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.41157700000000003</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.56817499999999999</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.73965000000000003</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.92042599999999997</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.1046199999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.2862499999999999</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.45939</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.61842</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.75814</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.87401</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.96224</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2.0199400000000001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>2.0452300000000001</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2.0372599999999998</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1.9962899999999999</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.92363</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.8216399999999999</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.69364</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.54382</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.3770500000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.1988099999999999</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.0148999999999999</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.83135899999999996</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.65417899999999995</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.48914800000000003</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.34164699999999998</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.21646899999999999</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.117669</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>4.8430500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.09663E-2</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>6.4527200000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>3.4996699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>9.5636899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.18637799999999999</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.30425799999999997</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.445438</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.60533000000000003</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0.77873099999999995</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0.95999599999999996</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.1432100000000001</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.32239</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.4916700000000001</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.6455</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.77887</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.88741</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.9676199999999999</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2.0169000000000001</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2.0336799999999999</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2.0174400000000001</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.9687300000000001</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.88914</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.7812399999999999</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.6485300000000001</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.4953000000000001</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.32653</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.14771</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.96468799999999999</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.78344899999999995</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.60991899999999999</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0.44976699999999997</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0.30821700000000002</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.18987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>9.8609100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>3.7380099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>8.1993099999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.20374E-2</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>4.87929E-2</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.117289</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.21531</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.339669</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.48631999999999997</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.65049599999999996</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.82686700000000002</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.0097100000000001</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.1931</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.3710899999999999</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.53789</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.68807</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.81673</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.91967</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.9935499999999999</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2.0359600000000002</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>2.04555</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>2.0220199999999999</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.96614</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.8797200000000001</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.76555</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.6273500000000001</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.4696</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.2974300000000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.1164499999999999</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0.93256300000000003</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.75173999999999996</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0.57985399999999998</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0.42248000000000002</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.284715</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.17102400000000001</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>8.5088200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>2.9689299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>6.6130599999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.6590899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>5.9277200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.13326299999999999</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.236124</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.36450100000000002</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.51420100000000002</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0.68033999999999994</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0.85749399999999998</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.0398799999999999</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1.22156</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.3966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.55932</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.70441</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.8271500000000001</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.92354</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.99044</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>2.0256599999999998</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>2.02806</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.9975700000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.9351799999999999</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1.84294</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.7238500000000001</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1.58178</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>1.42137</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1.24783</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>1.0668299999999999</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.88426800000000005</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.70609900000000003</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.53813100000000003</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.38583800000000001</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0.25418800000000003</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0.147478</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>6.9194599999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>2.1901299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>7.1517500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>2.5439699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>7.6183799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0.157747</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.26749099999999998</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0.40185799999999999</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>0.55648699999999995</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>0.726356</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>0.905945</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1.0894200000000001</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>1.27081</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>1.4442200000000001</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>1.6040099999999999</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>1.74498</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>1.86252</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>1.9528099999999999</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>2.0128900000000001</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>2.0407999999999999</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>2.0356100000000001</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>1.9975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>1.9276800000000001</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1.8284199999999999</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1.70295</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1.55535</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1.39045</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>1.21363</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>1.0306599999999999</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>0.847522</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0.67019799999999996</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>0.50447699999999995</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0.35576400000000002</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0.22889899999999999</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0.127999</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>5.6322700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>1.6168999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>8.8032300000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>3.4421199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>9.2146800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0.180065</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0.29528500000000002</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0.43403999999999998</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>0.59180699999999997</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>0.76345200000000002</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>0.94339300000000004</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>1.12578</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>1.30467</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>1.4742299999999999</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>1.6289400000000001</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>1.76373</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>1.87419</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>1.9567000000000001</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>2.0085600000000001</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>2.0280900000000002</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>2.01464</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>1.9686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>1.8917600000000001</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>1.7863599999999999</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>1.65595</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>1.50478</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>1.3377600000000001</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>1.16035</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0.97829699999999997</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0.79754199999999997</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0.62397999999999998</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.46327800000000002</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.32069300000000001</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0.20089399999999999</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.10780099999999999</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>4.4460199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>1.2942499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>1.42811E-2</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>4.8441699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0.114327</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0.209815</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>0.33182400000000001</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0.47640900000000003</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>0.63888800000000001</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.81398700000000002</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0.99601399999999995</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1.1790499999999999</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1.3571299999999999</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1.5244800000000001</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>1.67567</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>1.80579</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>1.9106300000000001</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>1.9867900000000001</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>2.0318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>2.04419</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>2.0235300000000001</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>1.9704900000000001</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>1.8867799999999999</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>1.77512</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>1.63916</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>1.48332</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>1.3126899999999999</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>1.1328</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.94950800000000002</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.76875599999999999</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0.59640700000000002</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0.438054</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>0.29883599999999999</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>0.18327099999999999</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>9.5104599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>3.7186900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>1.13784E-2</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>1.8492999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>5.8274899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>0.129409</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>0.22956199999999999</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>0.35546</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>0.50298799999999999</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0.667323</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>0.84309599999999996</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>1.0245599999999999</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>1.20581</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>1.3809199999999999</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>1.5442</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>1.6903300000000001</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>1.8145500000000001</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>1.9128099999999999</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>1.9819100000000001</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>2.0195799999999999</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>2.0246</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>1.99682</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>1.9371499999999999</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>1.84754</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>1.73092</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>1.5910899999999999</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>1.4326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>1.2606200000000001</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>1.08074</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>0.89884699999999995</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0.72086899999999998</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0.552616</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0.39957599999999999</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0.26674399999999998</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0.15845400000000001</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>7.8245800000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>2.8747999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>1.1590100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>2.7349200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>7.5529600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>0.15458</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>0.26194299999999998</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>0.39414399999999999</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>0.54689900000000002</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0.715252</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>0.89373999999999998</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>1.07656</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>1.2577799999999999</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>1.4314899999999999</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>1.59206</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>1.7342500000000001</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>1.85345</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>1.94577</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>2.0081899999999999</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>2.0386799999999998</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>2.0362200000000001</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>2.0008900000000001</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>1.9338299999999999</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>1.8372200000000001</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>1.7141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>1.5687800000000001</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>1.4056900000000001</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>1.2302500000000001</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>1.0481799999999999</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>0.86542799999999998</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>0.68796000000000002</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>0.52156599999999997</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>0.37167</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>0.24315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0.140178</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>6.60858E-2</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>2.3256200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>1.30457E-2</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>3.5743400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>9.0565499999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0.17568400000000001</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>0.28829300000000002</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>0.42469699999999999</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0.58043800000000001</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0.75043800000000005</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0.92915899999999996</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>1.1107899999999999</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>1.28942</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>1.4592400000000001</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>1.6147199999999999</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>1.7507900000000001</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>1.8630100000000001</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>1.9477100000000001</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>2.0020899999999999</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>2.0243699999999998</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>2.0138199999999999</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>1.9707699999999999</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>1.8966499999999999</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>1.7938700000000001</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>1.66581</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>1.51667</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>1.35134</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>1.1752</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.99401200000000001</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>0.81367699999999998</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>0.64007000000000003</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0.47884500000000002</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>0.33526099999999998</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>0.214008</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>0.119056</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>5.3525000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>1.95777E-2</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>1.8347700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>4.99E-2</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>0.113228</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0.20629</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0.32607399999999997</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0.46870099999999998</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>0.62955399999999995</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>0.803423</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>0.98467700000000002</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>1.16744</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>1.34578</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>1.5139</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>1.6663300000000001</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>1.7981100000000001</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>1.9049400000000001</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>1.98336</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>2.0308099999999998</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>2.04576</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>2.02773</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>1.97733</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>1.89619</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>1.7869600000000001</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>1.65316</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>1.49916</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>1.3299300000000001</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>1.15099</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0.96814999999999996</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0.78734899999999997</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>0.61446999999999996</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0.45512399999999997</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>0.31447799999999998</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>0.19708300000000001</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>0.10673100000000001</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>4.6332600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>1.7824900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>2.2110999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>5.90281E-2</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0.12735199999999999</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>0.22483500000000001</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>0.34827999999999998</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>0.49364599999999997</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>0.65618100000000001</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>0.83057800000000004</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>1.01115</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>1.36724</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>1.5311600000000001</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>1.67839</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>1.8041499999999999</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>1.90432</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>1.9756499999999999</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>2.0158100000000001</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>2.0234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>1.99847</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>1.9415500000000001</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>1.85459</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>1.7404299999999999</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>1.60277</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>1.4461200000000001</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>1.2755799999999999</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>1.0967199999999999</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>0.91537199999999996</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>0.73746900000000004</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>0.56881300000000001</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0.41491099999999997</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>0.28078900000000001</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>0.17083200000000001</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>8.8639399999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>3.69115E-2</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>1.73554E-2</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>3.0630299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>7.6325000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>0.152973</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>0.25809900000000002</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>0.38830399999999998</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>0.53937100000000004</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0.706403</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>0.88397899999999996</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>1.06633</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>1.24753</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>1.4216899999999999</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>1.58314</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>1.72664</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>1.84751</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>1.9418299999999999</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>2.0065200000000001</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>2.0394600000000001</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>2.0395699999999999</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>2.00684</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>1.94232</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>1.8481099999999999</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>1.7272700000000001</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>1.58375</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>1.42221</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>1.24793</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>1.06657</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>0.88404799999999994</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>0.70632300000000003</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>0.539188</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>0.38808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>0.25794499999999998</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>0.15298</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>7.6589400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>3.1231100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>1.83444E-2</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>3.8305800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>9.0418999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>0.17294000000000001</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>0.283136</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>0.41738199999999998</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>0.57127600000000001</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>0.739788</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>0.91742100000000004</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>1.09839</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>1.2767999999999999</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>1.44685</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>1.603</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>1.7401800000000001</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>1.8539099999999999</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>1.94049</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>1.99708</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>2.02183</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>2.0139</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>1.9735400000000001</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>1.9020699999999999</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>1.8018099999999999</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>1.67605</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1.5288999999999999</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>1.3651800000000001</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>1.1902600000000001</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>1.0098499999999999</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>0.82985100000000001</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>0.65613600000000005</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>0.49437399999999998</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>0.34984199999999999</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0.22725899999999999</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>0.130631</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>6.3127500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>2.6977899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>2.3395099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>5.2533799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>0.113481</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>0.20428499999999999</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0.32201200000000002</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>0.46284799999999998</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0.62222299999999997</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0.794964</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>0.97546299999999997</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>1.1578599999999999</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>1.3362499999999999</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>1.50485</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>1.6581999999999999</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>1.7913300000000001</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>1.89991</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>1.9804200000000001</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>2.03024</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>2.0477300000000001</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>2.0323199999999999</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>1.9844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>1.9058299999999999</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>1.79888</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>1.6671199999999999</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>1.51484</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>1.1690400000000001</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>0.98674099999999998</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>0.80601900000000004</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>0.63273299999999999</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>0.47250300000000001</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>0.33052399999999998</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>0.211398</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>0.11898</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>5.62567E-2</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>2.52403E-2</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>2.69099E-2</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>6.1178700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>0.12690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>0.22190499999999999</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>0.34307599999999999</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>0.48644599999999999</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>0.64732400000000001</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>0.82045199999999996</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>1.00017</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>1.1806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>1.3558600000000001</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>1.5202199999999999</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>1.66831</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>1.79532</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>1.8971</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>1.97034</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>2.0126599999999999</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>2.0226799999999998</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>2.00007</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>1.94557</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1.8609599999999999</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>1.7490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>1.6133500000000001</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>1.45845</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>1.28935</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>1.1115699999999999</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>0.93091999999999997</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>0.75328499999999998</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>0.58446699999999996</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>0.42997999999999997</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>0.29487400000000002</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>0.18357100000000001</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>9.9717700000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>4.6067900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>2.4390200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>3.5413300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>7.8802399999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>0.153171</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>0.25612400000000002</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>0.38433600000000001</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>0.53365799999999997</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>0.69925000000000004</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>0.87573900000000005</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>1.0573999999999999</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>1.2383200000000001</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>1.41265</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>1.5747</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>1.71922</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>1.84152</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>1.9375899999999999</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>2.0043299999999999</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>2.0395300000000001</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>2.0420600000000002</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>2.0118100000000001</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>1.9497800000000001</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>1.8579699999999999</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>1.7393799999999999</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>1.59785</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>1.43801</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>1.2650399999999999</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>1.0845899999999999</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>0.90252500000000002</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>0.72479300000000002</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>0.55718199999999996</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>0.40515200000000001</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>0.273648</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>0.166936</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>8.8471099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>4.0777399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>2.5371100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>4.2710999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>9.2184500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>0.17213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>0.279893</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>0.41191899999999998</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>0.56386899999999995</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>0.730765</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>0.90715199999999996</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1.08727</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>1.2652600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>1.4353100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>1.5919000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>1.7299199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>1.8448899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>1.9330700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>1.99159</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>2.0185300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>2.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>1.9751700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>1.9062600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>1.8085199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>1.68512</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>1.5401</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>1.3782099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>1.20475</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>1.02539</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>0.84600600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>0.67246300000000003</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>0.51043499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>0.36521999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>0.241563</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>0.14350599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>7.4259699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>3.6102000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>3.0303099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>5.7085999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>0.115617</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>0.20402799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>0.31947900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>0.45824100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>0.61582400000000004</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>0.78711900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>0.96656600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>1.1483399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>1.3265400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>1.4954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>1.64943</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>1.78365</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>1.89371</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>1.9760599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>2.0280399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>2.0479400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>2.0351300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>1.9899899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>1.9139900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>1.80958</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>1.68014</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>1.5298799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>1.3636900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>1.1869700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>1.0054700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>0.82509600000000005</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>0.65169100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>0.49087900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>0.34786400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>0.227269</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>0.13298499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>6.8046300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>3.4534599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>3.3509200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>6.4971799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>0.12786600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>0.220113</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>0.338675</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>0.47966300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>0.638459</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>0.80987299999999995</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>0.98830499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>1.1679299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>1.3428899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>1.5074799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>1.65632</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>1.7845500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>1.8879900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>1.9632700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>2.0079199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>2.0205099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>2.00061</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>1.9489000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>1.8670500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>1.7577400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>1.62453</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>1.4717800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>1.30447</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>1.1280600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>0.94830800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>0.77109499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>0.602213</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>0.447185</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>0.31108400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>0.19836599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>0.11272699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>5.6983499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>3.2979799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>4.1527799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>8.2379800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>0.15423500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>0.25478099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>0.380772</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>0.52812899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>0.69208199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>0.86731599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>1.0481499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>1.22871</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>1.4031499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>1.5657799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>1.7113400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>1.83508</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>1.9329700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>2.00183</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>2.0394199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>2.0445199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>2.01695</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>1.9576100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>1.86842</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>1.7522800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>1.6129599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>1.45499</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>1.28352</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>1.1041300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>0.92266300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>0.74502800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>0.57700899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>0.42406899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>0.29117700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>0.182644</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>0.101981</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>5.1785699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>3.3656699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>4.8141099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>9.4718300000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>0.17182</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>0.27688299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>0.40643800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>0.55622400000000005</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>0.72132700000000005</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>0.89634199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>1.07555</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>1.2531000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>1.4232100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>1.5803400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>1.7193700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>1.83579</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>1.9258200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>1.98651</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>2.0159099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>2.0130300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>1.9779800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>1.91187</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>1.8168599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>1.69604</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>1.55335</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>1.3934500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>1.22157</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>1.0433300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>0.86457200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>0.69115099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>0.528748</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>0.38268400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>0.257745</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>0.158025</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>8.6792900000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>4.6392599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>3.8165400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>6.2410100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>0.11837300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>0.20427200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>0.31735099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>0.45397300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>0.60972700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>0.77957799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>0.95802699999999996</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>1.1392899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>1.31748</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>1.48682</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>1.6417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>1.77739</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>1.8892</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>1.9736</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>2.02786</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>2.0502400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>2.0400100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>1.9975099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>1.9241200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>1.8222100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>1.69509</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>1.54688</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>1.3823799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>1.2069300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>1.02623</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>0.84614800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>0.67252900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>0.51100199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>0.36679800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>0.24457799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>0.148283</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>8.1006099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>4.4896800000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="14901248"/>
+        <c:axId val="14899456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="14901248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="14899456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="14899456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="14901248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$1200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1199"/>
+                <c:pt idx="0">
+                  <c:v>2.0512199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0344099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0092500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9350499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.88672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8314600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7020500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.62897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5510999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4691000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3836200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2953699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2050799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1134599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0212699999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92924200000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83811800000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74862399999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66147100000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57734799999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49691600000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42080299999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34959899999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28385199999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.22406100000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.170677</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.124095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4650900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2623900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8229299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.16194E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8818099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0394100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0501799999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.38079E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6143099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5825199999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.112564</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15601300000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20577100000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.26138800000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.32236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38817200000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45822400000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.53191600000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.60861200000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.68765500000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76837</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.85007299999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93207200000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0136799999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0942099999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.17299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2493700000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3227100000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3924099999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4579</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5186299999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.57413</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6239300000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.66764</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7049000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.73543</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.75898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.77538</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7845</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7862800000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7807299999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7679100000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.74793</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7209700000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.68727</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6471199999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6008500000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.54887</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4916</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4295100000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.36314</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.29301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2197100000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.14385</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.06603</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.98688600000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.90706399999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.827206</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.74795299999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.669937</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.593781</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.52008699999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.449436</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.382382</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.31944499999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.26111200000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.20782900000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.159998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.117976</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.2069699999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.2536100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.9577300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.33414E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.9204000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3503600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.6108E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.6625399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.4262599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.8337300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8.8612099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.12479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.16656599999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.213531</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.26527600000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.32134299999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.38124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.44444800000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.51041899999999996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.57858900000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.64837599999999995</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.71918499999999996</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.79042000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.86148000000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.93176800000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0006999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.0677000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.1322099999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.1937</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.25166</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.3056300000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.3551500000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3998299999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4393100000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4732700000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.5014400000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.5236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5395799999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5492600000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.55257</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.5495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.54009</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.52443</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.5026600000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.4749699999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.40282</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.3589800000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.31043</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.25759</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.2009000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.1408100000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.07782</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.0124599999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.94525099999999995</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.87674200000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.80748799999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.73804899999999996</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.66898199999999997</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.60083900000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.534165</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.46948600000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.40731299999999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.34813300000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.29240699999999997</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.240566</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.19300500000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.150086</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.11212900000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.9412200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.2169899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.0590599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.48158E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.9383400000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.00263E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.0040399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.0889299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.4556999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.3858899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.8601099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.8545800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.133413</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.17288600000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.21660699999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.26418999999999998</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.31521399999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.36923600000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.425788</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.48438300000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.54452</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.60568599999999995</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.66736499999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.72903499999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.79017899999999996</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.85028499999999996</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.90885199999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.965395</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.01945</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.07056</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.11832</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.1623300000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.20224</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.2377199999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.2684899999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.2943100000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.31497</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.3303100000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.34022</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.3446199999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.3434900000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.3368599999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.3247899999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.30738</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.2847900000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.25722</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.2249000000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.18811</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.14716</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.1023700000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.0541400000000001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.0028600000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.94894699999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.89284600000000003</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.83501700000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.77593000000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.71606400000000003</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.65590300000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.59593099999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.53662900000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.47847000000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.42191699999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.36741499999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.31539400000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.26625900000000002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.220392</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.178145</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.13983999999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.105765</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7.6170500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5.12723E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3.1244500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.62214E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6.2954200000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.51687E-3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.8935899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7.3910599999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.7932799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.3401399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5.3639100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7.8450000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.107601</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.14082500000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.17782100000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.21826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.26178499999999999</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.30801499999999998</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.35654799999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.40696599999999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.45883699999999999</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.51171599999999995</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.56515400000000005</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.61870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.671902</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.72431199999999996</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.77549299999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.82501800000000003</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.87247600000000003</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.91747400000000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.95964099999999997</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.99863199999999996</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.03413</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.0658399999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.09352</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.11693</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.1358999999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.1502699999999999</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.15994</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.1648400000000001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.1649400000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.1602300000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.15079</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.1366799999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.1180399999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.0950299999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.0678399999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.0367200000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.0019100000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.96372100000000005</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.922462</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.87847699999999995</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.83213099999999995</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.78380499999999997</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.73389599999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.68281099999999995</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.63096699999999994</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.57878300000000005</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.52668099999999995</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.47508</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.42439199999999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.37502200000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.32736100000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.28178399999999998</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.238647</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.19828699999999999</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.16101399999999999</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.127113</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>9.6838800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>7.0416300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4.8037400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.98602E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.6007400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>6.5657900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.5855299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.0799500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5.0255600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.33624E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.5994799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>4.27921E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>6.3589999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>8.8192099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.116372</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.147873</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.18241599999999999</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.219693</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.25938</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.30113099999999998</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.34458499999999997</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.38937100000000002</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.43510500000000002</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.48139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.52786299999999997</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.57410499999999998</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.61973699999999998</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.66437800000000002</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.70765599999999995</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.74921499999999996</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.78870899999999999</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.82581499999999997</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.86023000000000005</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.89167200000000002</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.91988700000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.94464800000000004</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.96575800000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.98304899999999995</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.99638599999999999</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.0056700000000001</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.0108299999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.01183</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.00867</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.00139</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.99005100000000001</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.97476200000000002</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.95565199999999995</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.93288599999999999</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.90665600000000002</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.87718499999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.844719</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.80952900000000005</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.77190599999999998</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.73216099999999995</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.69062100000000004</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.64762500000000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.60352600000000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.55867999999999995</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.51345099999999999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.46820499999999998</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.42330400000000001</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.379108</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.33596900000000002</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.29422799999999999</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.254216</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.21624499999999999</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.18061099999999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.147589</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.11743199999999999</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>9.0368000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>6.65993E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>4.6299699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2.9614100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.6657100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>7.51237E-3</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2.2318799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>8.3572900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3.3120599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>9.6172800000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.9676599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3.3384700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>5.0606699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>7.1179599999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>9.4913300000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.12159300000000001</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.15098</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.18281500000000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.21681800000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.25269599999999998</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.29013800000000001</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.32882299999999998</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.368421</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.40859600000000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.44900800000000002</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.48931799999999998</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.52918799999999999</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.56828400000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.60628099999999996</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.64286600000000005</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.67773499999999998</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.71060199999999996</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.74119800000000002</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.76927400000000001</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.79460299999999995</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.81697900000000001</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.836225</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.85218700000000003</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.86473999999999995</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.87378900000000004</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.87926499999999996</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.881131</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.87937900000000002</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.87402999999999997</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.86513600000000002</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.85277700000000001</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.83706100000000006</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.81812300000000004</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.79612499999999997</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.77125200000000005</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.74371299999999996</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.71373799999999998</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.68157400000000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.64748700000000003</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.61175900000000005</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.57467999999999997</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.53655399999999998</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.49769099999999999</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.45840399999999998</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.419012</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.37982900000000003</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.34116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.30334299999999997</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.26664599999999999</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.23136899999999999</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.19778799999999999</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.16616500000000001</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.136743</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0.109748</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>8.5384100000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>6.3832799999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>4.5252100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2.9774999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.75084E-2</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>8.5324700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2.9000499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>6.3632700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.7387500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>6.1771700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.3894200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2.4805799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>3.8802099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>5.5748300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>7.5485999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>9.7834699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0.12259299999999999</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0.14954100000000001</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.17844099999999999</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.209041</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.24107500000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0.27426899999999999</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0.30833700000000003</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.34299000000000002</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>0.37793399999999999</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0.41287299999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.447515</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0.48157</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.51475199999999999</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.54678800000000005</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.57741200000000004</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.60637099999999999</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.63342799999999999</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.658362</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.68097099999999999</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0.701071</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>0.71850199999999997</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0.73312500000000003</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>0.74482400000000004</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.75351000000000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0.75911700000000004</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>0.76160399999999995</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.76095900000000005</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0.75719199999999998</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.75034100000000004</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.74046900000000004</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.72766200000000003</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.71203099999999997</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.69371099999999997</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.67285600000000001</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0.64964200000000005</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0.62426199999999998</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0.59692699999999999</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0.56786499999999995</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.53731399999999996</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0.505525</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0.47275899999999998</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.43928099999999998</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.40536499999999998</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>0.37128299999999997</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>0.33731100000000003</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0.30372100000000002</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0.27078099999999999</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0.23875299999999999</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.20788999999999999</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.17843600000000001</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.150619</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.124657</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0.100748</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>7.9075099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>5.9800600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>4.3067099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>2.8995799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.7685599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>9.2119400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>3.6270199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>9.5893400000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.2117199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>4.3654200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.03763E-2</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.9177300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>3.0678899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>4.4769299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>6.13164E-2</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>8.0168199999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.10115399999999999</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.124087</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.14876500000000001</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.17497199999999999</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.20247999999999999</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.23105200000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.26044299999999998</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0.29040100000000002</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0.32067200000000001</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0.35100100000000001</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0.381131</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.41081000000000001</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>0.43979000000000001</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0.46783000000000002</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0.49469600000000002</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.52016799999999996</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0.54403500000000005</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>0.56610199999999999</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>0.58618899999999996</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>0.60413300000000003</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>0.61978999999999995</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>0.63303500000000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>0.64376299999999997</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>0.65188999999999997</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>0.65735500000000002</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>0.66011699999999995</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>0.660161</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>0.65749000000000002</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>0.65213200000000004</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0.64413699999999996</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0.63357699999999995</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>0.62054200000000004</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>0.60514500000000004</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>0.58751600000000004</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>0.567805</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>0.54617599999999999</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0.52281</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0.49790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>0.47165299999999999</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0.44428400000000001</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>0.416018</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0.38708599999999999</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0.35772100000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0.32816400000000001</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>0.298651</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>0.26942100000000002</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>0.240706</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>0.21273700000000001</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>0.18573300000000001</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0.15990799999999999</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0.135465</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0.112593</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>9.1467499999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>7.2251099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>5.5088199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>4.0106000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>2.74135E-2</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>1.7100500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>9.2365199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>3.8710200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>1.03257E-3</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>7.2888399999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>2.9468200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>7.65257E-3</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>1.4792E-2</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>2.4291400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>3.6057600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>4.9979500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>6.5928799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>8.3760799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>0.10331600000000001</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>0.124422</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0.146893</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0.17053499999999999</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0.19514200000000001</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.22050400000000001</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.24640400000000001</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0.272623</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.29893799999999998</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0.325127</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.35097099999999998</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.37625500000000001</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.40076699999999998</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0.42430400000000001</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0.44667200000000001</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>0.46768700000000002</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0.487178</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>0.50498399999999999</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.52096200000000004</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0.53498400000000002</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.54693599999999998</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0.55672500000000003</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.56427300000000002</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.56952400000000003</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.57243900000000003</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.57299800000000001</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0.57120099999999996</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>0.56706900000000005</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>0.56064000000000003</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>0.55197099999999999</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>0.54113800000000001</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0.52823399999999998</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.51336800000000005</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0.49666700000000003</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0.47826999999999997</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>0.45833099999999999</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>0.43701400000000001</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.414497</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.390963</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0.36660700000000002</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0.34162700000000001</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>0.31622699999999998</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>0.29061100000000001</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>0.26498699999999997</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>0.239561</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0.21453700000000001</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0.19011400000000001</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>0.16648499999999999</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>0.14383799999999999</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>0.122349</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>0.102188</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>8.3508299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>6.6454399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>5.1155300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>3.77252E-2</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>2.6262799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>1.6849900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>9.5514699999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>4.4147099999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>1.4689200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>7.2533700000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>2.1770600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>5.79921E-3</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>1.1549200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>1.9367200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>2.9176500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>4.0884700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>5.43837E-2</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>6.9551600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>8.6252999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>0.104341</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>0.123656</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>0.14403299999999999</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0.165294</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0.18725800000000001</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0.20973800000000001</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0.232543</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0.25548100000000001</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>0.27835799999999999</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>0.30098399999999997</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>0.32316899999999998</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>0.34472900000000001</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>0.36548599999999998</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>0.385268</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>0.40391300000000002</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>0.421269</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>0.43719400000000003</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0.45155899999999999</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>0.46424900000000002</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>0.47516199999999997</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>0.48421199999999998</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>0.49132799999999999</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>0.49645499999999998</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>0.49955500000000003</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>0.500606</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>0.49960599999999999</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>0.49656400000000001</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>0.491512</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>0.48449300000000001</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>0.47557100000000002</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>0.46482000000000001</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>0.45233400000000001</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>0.43821599999999999</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>0.42258600000000002</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>0.40557399999999999</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>0.38732</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>0.367975</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>0.34769899999999998</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>0.326656</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>0.30501800000000001</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>0.28296199999999999</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>0.26066499999999998</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0.23830699999999999</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>0.21606800000000001</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0.19412499999999999</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>0.172652</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>0.15182000000000001</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>0.13179299999999999</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0.11272600000000001</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>9.4769599999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>7.8060500000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>6.2726900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>4.8884499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>3.6636500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>2.6072499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>1.72678E-2</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>1.0283199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>5.1641400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>1.9406099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>6.2694599999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>1.2217599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>3.70799E-3</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>8.0531600000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>1.42097E-2</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>2.2115200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>3.1693499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>4.2854799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>5.5496700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>6.95051E-2</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>8.4755300000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>0.10111299999999999</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.118434</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>0.13657</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>0.155364</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0.174654</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>0.194276</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>0.214063</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>0.233849</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>0.25346800000000003</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>0.27275300000000002</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>0.29154600000000003</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>0.30968899999999999</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>0.32703300000000002</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0.34343400000000002</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0.35875800000000002</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0.37287900000000002</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>0.385683</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>0.39706599999999997</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>0.40693800000000002</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>0.41521799999999998</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>0.42184199999999999</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>0.42675999999999997</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>0.42993300000000001</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>0.43133899999999997</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>0.43097000000000002</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>0.42883399999999999</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>0.42494999999999999</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>0.41935600000000001</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>0.41209899999999999</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>0.40324300000000002</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>0.39286500000000002</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>0.38105</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>0.3679</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>0.35352499999999998</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>0.33804299999999998</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>0.32158300000000001</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0.30427999999999999</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0.28627799999999998</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>0.26772299999999999</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0.24876699999999999</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>0.22956299999999999</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>0.21026800000000001</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>0.19103500000000001</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>0.17202100000000001</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>0.15337600000000001</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>0.13524900000000001</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>0.117784</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0.101118</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>8.5381499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>7.0696200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>5.7175400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>4.49221E-2</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>3.4028500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>2.4575199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>1.6630800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>1.02509E-2</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>5.4782900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>2.3423599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>8.5884100000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>1.02987E-3</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>2.8439799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>6.2762299999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>1.12885E-2</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>1.78298E-2</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>2.5836899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>3.5234700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>4.5936900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>5.7847000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>7.08588E-2</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>8.4857699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>9.9721099999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>0.11532000000000001</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>0.13152</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>0.14818300000000001</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0.16516500000000001</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>0.18232400000000001</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>0.199513</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>0.216589</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>0.233408</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>0.249829</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>0.26571600000000001</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>0.28093800000000002</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>0.29536800000000002</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>0.30888900000000002</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>0.32138899999999998</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>0.33276600000000001</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0.34293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>0.351796</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>0.359296</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>0.36536999999999997</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>0.36997000000000002</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>0.37306099999999998</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>0.37462200000000001</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0.37464199999999998</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>0.37312400000000001</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>0.37008400000000002</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>0.36555100000000001</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>0.35956300000000002</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>0.35217500000000002</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0.343447</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0.33345599999999997</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>0.32228400000000001</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>0.310027</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>0.29678500000000002</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>0.28266799999999997</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0.267793</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>0.25228299999999998</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>0.236264</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>0.21986700000000001</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>0.20322599999999999</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>0.186474</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>0.16974700000000001</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>0.15318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>0.136905</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>0.12105</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>0.105743</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>9.1103100000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>7.7244999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>6.4276299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>5.2297099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>4.1398600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>3.1662799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>2.3162100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>1.5958099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>1.0101600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>5.6323099999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>2.5780899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>9.5522300000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>7.6813000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>2.00942E-3</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>4.6599800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>8.6892299999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>1.4055399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>2.07058E-2</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>2.8577499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>3.7597800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>4.7684900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>5.8748500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>7.0690699999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>8.34067E-2</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>9.6785899999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>0.11071300000000001</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>0.12506700000000001</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>0.13972699999999999</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>0.15456700000000001</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0.169463</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>0.18428700000000001</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>0.19891700000000001</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>0.213229</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>0.227104</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>0.240427</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>0.25308900000000001</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>0.26498500000000003</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0.27601700000000001</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>0.28609499999999999</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0.29513800000000001</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0.30307299999999998</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>0.309836</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>0.31537399999999999</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>0.31964399999999998</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>0.32261200000000001</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>0.32425700000000002</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>0.324569</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>0.323546</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>0.32120100000000001</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>0.317556</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>0.31264199999999998</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>0.30650300000000003</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>0.29919200000000001</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>0.290771</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>0.28131099999999998</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>0.27089099999999999</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>0.259598</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>0.247527</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>0.23477600000000001</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>0.22145100000000001</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>0.20766200000000001</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>0.193521</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>0.179142</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>0.16464400000000001</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>0.150142</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>0.13575400000000001</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>0.12159499999999999</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>0.107779</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>9.4413999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>8.1606899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>6.9458000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>5.8062200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>4.75077E-2</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>3.7875699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>2.9239399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>2.16633E-2</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>1.5203299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>9.9057399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>5.8072599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>2.9345299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>1.3040599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>9.2209799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>1.7846100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>3.8773900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>7.1761799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>1.16469E-2</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>1.72461E-2</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>2.3921100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>3.1610600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>4.0245499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>4.9748800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>6.0036899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>7.1020200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>8.2603599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>9.4687400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>0.107168</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>0.11994</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>0.13289500000000001</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>0.145924</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>0.158917</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>0.171765</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>0.184362</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>0.196604</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>0.20838799999999999</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>0.21961800000000001</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>0.23020199999999999</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>0.24005299999999999</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>0.24909100000000001</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>0.25724399999999997</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>0.26444499999999999</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>0.27063700000000002</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>0.27577099999999999</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>0.27980699999999997</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>0.28271400000000002</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>0.28447</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>0.28506399999999998</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>0.284493</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>0.28276299999999999</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>0.27989199999999997</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>0.27590500000000001</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>0.27083699999999999</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>0.26473200000000002</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>0.25764100000000001</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>0.24962400000000001</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>0.24074899999999999</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>0.23108899999999999</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>0.220724</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>0.20974000000000001</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>0.19822600000000001</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>0.186277</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>0.17399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>0.161465</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>0.14880299999999999</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>0.136106</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>0.123475</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>0.111011</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>9.8813300000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>8.6978399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>7.5599100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>6.47644E-2</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>5.4558099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>4.5058899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>3.6339099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>2.84645E-2</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>2.1493600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>1.54772E-2</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1.04581E-2</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>6.4707599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>3.5409899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>1.68585E-3</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>9.1352000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>1.22324E-3</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>2.6053999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>5.0416100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>8.5049400000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>1.29601E-2</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>1.8363899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>2.46655E-2</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>3.1806899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>3.9723500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>4.8344499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>5.7593800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>6.73903E-2</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>7.7648999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>8.8281100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>9.9195400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>0.11029899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>0.12149699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>0.13269500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>0.14379800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>0.15471499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>0.165352</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>0.175622</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>0.18543999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>0.19472500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>0.2034</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>0.211395</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>0.21864400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>0.22508900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>0.23067699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>0.23536599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>0.239116</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>0.2419</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>0.243697</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>0.24449399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>0.244285</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>0.24307599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>0.24087800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>0.23771200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>0.23360400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>0.22859199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>0.222717</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>0.21603</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>0.20858699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>0.20045099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>0.191689</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>0.18237400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>0.17258200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>0.16239500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>0.151896</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>0.14116999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>0.130305</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>0.119389</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>0.10850899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>9.7753999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>8.7209200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>7.6958700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>6.7083699999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>5.7661999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>4.8767499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>4.04693E-2</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>3.2831300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>2.5911799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>1.9762999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>1.4430500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>9.9530599999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>6.3621099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>3.6818200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>1.9287099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>1.11166E-3</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>1.23178E-3</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>2.2824899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>4.2496000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>7.1114300000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>1.0839E-2</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>1.53965E-2</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>2.0741200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>2.6824199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>3.35909E-2</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>4.0980900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>4.8929199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>5.7366599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>6.6219799999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>7.5412699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>8.4866499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>9.4500700000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>0.10423399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>0.113983</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>0.123667</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>0.13320499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>0.142517</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>0.15152499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>0.16015499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>0.16833600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>0.17600099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>0.183087</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>0.18953600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>0.195296</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>0.200322</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>0.204572</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>0.208013</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>0.210619</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>0.21237</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>0.213253</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>0.21326300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>0.21240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>0.210676</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>0.20810400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>0.204708</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>0.200518</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>0.19556899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>0.18990399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>0.18356900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>0.176619</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>0.16911100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>0.161107</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>0.152673</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>0.14387800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>0.134795</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>0.125498</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>0.116061</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>0.106561</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>9.7075900000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>8.76802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>7.8449400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>6.9457000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>6.0774000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>5.2468599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>4.4605899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>3.7246799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>3.0447800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>2.4260799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>1.87323E-2</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>1.39031E-2</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>9.8082800000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>6.4766700000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>3.9306699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>2.1861900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>1.2524299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>1.1319399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>1.82055E-3</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>3.3074599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>5.5753699999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>8.6006199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>1.23535E-2</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>1.6798199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>2.1893699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>2.7593699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>3.3847000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>4.0598099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>4.7787799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>5.5353399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>6.3229400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>7.1348099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>7.96399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>8.8034299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>9.6460199999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>0.10484599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>0.113122</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>0.12121899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>0.12906799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>0.13660600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>0.14376900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>0.15049799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>0.15673899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>0.16244</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>0.16755500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>0.172043</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>0.175867</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>0.17899899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>0.18141199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>0.183089</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>0.18401699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>0.18418999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>0.18360899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>0.182279</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>0.18021300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>0.17743</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>0.173953</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>0.16981399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>0.165047</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>0.159692</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>0.15379399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>0.14740300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>0.140572</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>0.133358</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>0.12581899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>0.118019</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>0.11002000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>0.10188800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>9.3689599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>8.5490499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>7.7357099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>6.9354700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>6.1547400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>5.3997299999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="152849792"/>
+        <c:axId val="152848256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152849792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152848256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152848256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152849792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7417,15 +14847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>549851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>259773</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7439,6 +14869,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>143739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7736,8 +15226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:B1200"/>
+    <sheetView tabSelected="1" topLeftCell="V22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR47" sqref="AR47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
